--- a/DeepLearningPolycubing/Results/Results - CNN.xlsx
+++ b/DeepLearningPolycubing/Results/Results - CNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcleres/DeepShape/DeepLearningPolycubing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295FBA71-36D3-EA4F-AEC2-086AA7F79F4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D021BD-E64C-BA4C-B143-DEF823B4A8C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33940" yWindow="1580" windowWidth="27640" windowHeight="16560" xr2:uid="{1FF30029-29A1-3641-809C-79D299938826}"/>
+    <workbookView xWindow="33800" yWindow="920" windowWidth="27640" windowHeight="16560" xr2:uid="{1FF30029-29A1-3641-809C-79D299938826}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN - Down Unet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Training</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB118C4-4D64-6449-8DB7-F9AB01315F03}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,6 +641,150 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="G7">
+        <v>99.3</v>
+      </c>
+      <c r="H7">
+        <v>99.3</v>
+      </c>
+      <c r="I7">
+        <v>89.888885000000002</v>
+      </c>
+      <c r="J7">
+        <v>89.888885000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1221</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>99.3</v>
+      </c>
+      <c r="H8">
+        <v>99.3</v>
+      </c>
+      <c r="I8">
+        <v>89.888885000000002</v>
+      </c>
+      <c r="J8">
+        <v>89.888885000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1221</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1221</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1221</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1221</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1221</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DeepLearningPolycubing/Results/Results - CNN.xlsx
+++ b/DeepLearningPolycubing/Results/Results - CNN.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcleres/DeepShape/DeepLearningPolycubing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D021BD-E64C-BA4C-B143-DEF823B4A8C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB88C3E2-8E64-D643-9987-B009E551C487}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33800" yWindow="920" windowWidth="27640" windowHeight="16560" xr2:uid="{1FF30029-29A1-3641-809C-79D299938826}"/>
+    <workbookView xWindow="33800" yWindow="920" windowWidth="27640" windowHeight="16560" activeTab="1" xr2:uid="{1FF30029-29A1-3641-809C-79D299938826}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN - Down Unet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="21">
   <si>
     <t>Training</t>
   </si>
@@ -65,6 +68,30 @@
   <si>
     <t>Max training</t>
   </si>
+  <si>
+    <t xml:space="preserve">model = conv2DNet_2(Noutputs) </t>
+  </si>
+  <si>
+    <t>CNN Generator</t>
+  </si>
+  <si>
+    <t>ReLu</t>
+  </si>
+  <si>
+    <t>elu</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>Validation Accuracy (in %)</t>
+  </si>
+  <si>
+    <t>Training Accuracy (in %)</t>
+  </si>
 </sst>
 </file>
 
@@ -85,12 +112,36 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +180,3656 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>cNN - Activation function Comparison - Batch Size 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LeakyReLU(0.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>elu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99.900899999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.990089999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA84-444A-8378-0166EE66E7CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LeakyReLU(0.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>elu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.885000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.114999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.888850000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA84-444A-8378-0166EE66E7CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1740803696"/>
+        <c:axId val="1740799744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1740803696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740799744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740799744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1740803696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Activation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> function Comparison - Batch Size 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeakyReLU(0.2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$G$1,Sheet2!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$G$2,Sheet2!$I$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99.900899999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.885000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDB2-B64A-A7A4-B3D88D70EFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReLu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$G$1,Sheet2!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$G$3,Sheet2!$I$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDB2-B64A-A7A4-B3D88D70EFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>elu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$G$1,Sheet2!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$G$4,Sheet2!$I$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.114999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDB2-B64A-A7A4-B3D88D70EFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$G$1,Sheet2!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Training</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$G$5,Sheet2!$I$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99.990089999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.888850000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDB2-B64A-A7A4-B3D88D70EFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1740803696"/>
+        <c:axId val="1740799744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1740803696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740799744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740799744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1740803696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of the batch size - ReLu activation - CNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Accuracy (in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$3,Sheet1!$B$4,Sheet1!$B$7,Sheet1!$B$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$3,Sheet1!$C$4,Sheet1!$C$7,Sheet1!$C$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.990089999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5A4-564B-8E57-C9A4CAE7118D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation Accuracy (in %)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$3,Sheet1!$B$4,Sheet1!$B$7,Sheet1!$B$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$E$2,Sheet1!$E$3,Sheet1!$E$4,Sheet1!$E$7,Sheet1!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>99.665999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5A4-564B-8E57-C9A4CAE7118D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106685615"/>
+        <c:axId val="106878255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106685615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Batch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106878255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106878255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy (in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> %)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106685615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A246CA21-5D01-D540-8B4B-D81D6BCAD01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA2CE8D-19FC-CD48-A2A1-9C558AB91BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A1B950-8D78-1E4B-8E23-BC1A0958041E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB118C4-4D64-6449-8DB7-F9AB01315F03}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" activeCellId="3" sqref="A17:XFD17 A25:XFD25 A31:XFD31 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,10 +4140,12 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -468,7 +4177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -493,300 +4202,1585 @@
       <c r="I2" s="1">
         <v>88.2</v>
       </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>550</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="G3">
+        <v>99.7</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="J3">
+        <v>90.444400000000002</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>1221</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="3">
         <v>99.900899999999993</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4">
         <v>95.885000000000005</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="3">
         <v>95.885000000000005</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>1221</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="3">
         <v>99.990009000000001</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
         <v>93.777780000000007</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="3">
         <v>94.114999999999995</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>1221</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="3">
         <v>99.980180000000004</v>
       </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
         <v>93.22</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="3">
         <v>95.111000000000004</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>1221</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="3">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="3">
         <v>99.990089999999995</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
         <v>93.333359999999999</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="3">
         <v>95.111000000000004</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>1221</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="3">
         <v>99.3</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="3">
         <v>99.3</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="3">
         <v>89.888885000000002</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="3">
         <v>89.888885000000002</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="3">
         <v>1221</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>150</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="3">
         <v>25</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="3">
         <v>99.3</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="3">
         <v>99.3</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="3">
         <v>89.888885000000002</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="3">
         <v>89.888885000000002</v>
       </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="3">
         <v>1221</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
         <v>150</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="H11" s="3">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
+        <v>96.664000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>97.221999999999994</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>99.910799999999995</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>92.666399999999996</v>
+      </c>
+      <c r="J12" s="3">
+        <v>96.114999999999995</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>85.888499999999993</v>
+      </c>
+      <c r="J14" s="3">
+        <v>90.888499999999993</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3">
+        <v>99.177199999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>99.26652</v>
+      </c>
+      <c r="I15" s="3">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="J15" s="3">
+        <v>89.444400000000002</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
       </c>
+      <c r="G16" s="2">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2">
+        <v>99.665999999999997</v>
+      </c>
+      <c r="J16" s="2">
+        <v>99.888499999999993</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>99.98</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>96.77</v>
+      </c>
+      <c r="J17" s="2">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <v>93.55</v>
+      </c>
+      <c r="J18" s="2">
+        <v>95.33</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D19" s="2">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>99.93</v>
+      </c>
+      <c r="H19" s="2">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
+        <v>92.778000000000006</v>
+      </c>
+      <c r="J19" s="2">
+        <v>95</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>99.98</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="I20" s="2">
+        <v>93.22</v>
+      </c>
+      <c r="J20" s="2">
+        <v>94.11</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99.55</v>
+      </c>
+      <c r="I21" s="2">
+        <v>94.22</v>
+      </c>
+      <c r="J21" s="2">
+        <v>95.66</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="H22" s="2">
+        <v>87.88</v>
+      </c>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2">
+        <v>91.778000000000006</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="E24" s="5">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>99.96</v>
+      </c>
+      <c r="H24" s="5">
+        <v>99.97</v>
+      </c>
+      <c r="I24" s="5">
+        <v>99.22</v>
+      </c>
+      <c r="J24" s="5">
+        <v>99.33</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>100</v>
+      </c>
+      <c r="H25" s="5">
+        <v>100</v>
+      </c>
+      <c r="I25" s="5">
+        <v>97.114999999999995</v>
+      </c>
+      <c r="J25" s="5">
+        <v>97.444000000000003</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D26" s="5">
+        <v>100</v>
+      </c>
+      <c r="E26" s="5">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5">
+        <v>99.95</v>
+      </c>
+      <c r="H26" s="5">
+        <v>100</v>
+      </c>
+      <c r="I26" s="5">
+        <v>93.55</v>
+      </c>
+      <c r="J26" s="5">
+        <v>96.221999999999994</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D27" s="5">
+        <v>100</v>
+      </c>
+      <c r="E27" s="5">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="H27" s="5">
+        <v>99.63</v>
+      </c>
+      <c r="I27" s="5">
+        <v>93.44</v>
+      </c>
+      <c r="J27" s="5">
+        <v>94.888000000000005</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D28" s="5">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5">
+        <v>99.95</v>
+      </c>
+      <c r="H28" s="5">
+        <v>100</v>
+      </c>
+      <c r="I28" s="5">
+        <v>90.33</v>
+      </c>
+      <c r="J28" s="5">
+        <v>90.66</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5">
+        <v>25</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D30" s="7">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="H30" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="I30" s="7">
+        <v>99.22</v>
+      </c>
+      <c r="J30" s="7">
+        <v>99.55</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D31" s="7">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7">
+        <v>50</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="H31" s="7">
+        <v>96.885000000000005</v>
+      </c>
+      <c r="I31" s="7">
+        <v>96.888850000000005</v>
+      </c>
+      <c r="J31" s="7">
+        <v>97.111000000000004</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D32" s="7">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="H32" s="7">
+        <v>100</v>
+      </c>
+      <c r="I32" s="7">
+        <v>94</v>
+      </c>
+      <c r="J32" s="7">
+        <v>95.332999999999998</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D33" s="7">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7">
+        <v>99.51</v>
+      </c>
+      <c r="H33" s="7">
+        <v>93.665999999999997</v>
+      </c>
+      <c r="I33" s="7">
+        <v>99.53</v>
+      </c>
+      <c r="J33" s="7">
+        <v>95.555000000000007</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D34" s="7">
+        <v>100</v>
+      </c>
+      <c r="E34" s="7">
+        <v>50</v>
+      </c>
+      <c r="F34" s="7">
+        <v>20</v>
+      </c>
+      <c r="G34" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="H34" s="7">
+        <v>100</v>
+      </c>
+      <c r="I34" s="7">
+        <v>85.33</v>
+      </c>
+      <c r="J34" s="7">
+        <v>91.888499999999993</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D35" s="7">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>50</v>
+      </c>
+      <c r="F35" s="7">
+        <v>25</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>550</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>1221</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
+      <c r="G38">
+        <v>99.4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>550</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+      <c r="F39">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1221</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="F11">
+      <c r="G39">
+        <v>99.232299999999995</v>
+      </c>
+      <c r="I39" s="1">
+        <v>84.888850000000005</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>550</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
         <v>10</v>
       </c>
+      <c r="G40">
+        <v>99.959594999999993</v>
+      </c>
+      <c r="I40" s="1">
+        <v>89.111099999999993</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>550</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>1221</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1221</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
+      <c r="G41" s="1">
+        <v>98.808080000000004</v>
+      </c>
+      <c r="I41" s="1">
+        <v>84.888885000000002</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65213B1-9076-4447-892C-2556481B0620}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1221</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>99.900899999999993</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4">
+        <v>95.885000000000005</v>
+      </c>
+      <c r="J2" s="3">
+        <v>95.885000000000005</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>99.98</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>96.77</v>
+      </c>
+      <c r="J3" s="2">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5">
+        <v>97.114999999999995</v>
+      </c>
+      <c r="J4" s="5">
+        <v>97.444000000000003</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>50</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="H5" s="7">
+        <v>96.885000000000005</v>
+      </c>
+      <c r="I5" s="7">
+        <v>96.888850000000005</v>
+      </c>
+      <c r="J5" s="7">
+        <v>97.111000000000004</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63546CB-5BCD-3D42-BF6D-49931A152AB2}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>99.990089999999995</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>99.665999999999997</v>
+      </c>
+      <c r="F2" s="2">
+        <v>99.888499999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>99.98</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>96.77</v>
+      </c>
+      <c r="F3" s="2">
+        <v>97.777799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>93.55</v>
+      </c>
+      <c r="F4" s="2">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>99.93</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>92.778000000000006</v>
+      </c>
+      <c r="F5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>99.98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="E6" s="2">
+        <v>93.22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>99.55</v>
+      </c>
+      <c r="E7" s="2">
+        <v>94.22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>95.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>99.99</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>87.88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>91.778000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>